--- a/medicine/Enfance/Anne_Laval/Anne_Laval.xlsx
+++ b/medicine/Enfance/Anne_Laval/Anne_Laval.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Anne Laval, née le 22 février 1979 à Tahiti, est une illustratrice et autrice  française.
 </t>
@@ -511,9 +523,11 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Après des études à la fac d’arts plastiques de Strasbourg, Anne Laval rejoint l'atelier d’illustration de l'école supérieure des arts décoratifs de Strasbourg[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Après des études à la fac d’arts plastiques de Strasbourg, Anne Laval rejoint l'atelier d’illustration de l'école supérieure des arts décoratifs de Strasbourg.
 </t>
         </is>
       </c>
@@ -542,10 +556,12 @@
           <t>Carrière professionnelle</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Anne Laval dessine pour différents titres de presse et d'édition (Actes sud, Gallimard, Naïve, Bayard, The New Yorker, Télérama, la revue XXI). Les techniques utilisées varient selon ses compositions entre collage, peinture, sérigraphie ou crayons de couleur[2].
-Depuis 2005, elle dirige avec Violaine Leroy, Les Rhubarbus, un groupe d'expériences créatives regroupant artistes, illustrateurs et auteurs[3],[4].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Anne Laval dessine pour différents titres de presse et d'édition (Actes sud, Gallimard, Naïve, Bayard, The New Yorker, Télérama, la revue XXI). Les techniques utilisées varient selon ses compositions entre collage, peinture, sérigraphie ou crayons de couleur.
+Depuis 2005, elle dirige avec Violaine Leroy, Les Rhubarbus, un groupe d'expériences créatives regroupant artistes, illustrateurs et auteurs,.
 </t>
         </is>
       </c>
